--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/13_Bartın_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/13_Bartın_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{066EB9ED-5372-4DF3-90BB-86739D411C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCA7A6B6-D9FC-487B-A1C5-A19C97BC181B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{76C87A20-F649-4CD1-82ED-AE5F524B84B5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BA36B43E-960D-455D-8BFF-BB5CF6293274}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{44A9BA16-1BE4-4C02-9B4D-28F0295089C6}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{2A8BEF33-C32C-45E4-A3E1-14198C5C81DB}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{B5534663-64B9-43F7-B1C8-8CE5AC5069A5}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{FE55CCEE-9651-4FD9-9B27-CE0CB2DBD66C}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{B5DC5AF1-BD59-426E-8AB0-70005DBD0A34}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{48B7F4E7-FC0C-42DC-956C-28A9679D4EF7}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{B93B00E6-A675-4BB8-95DA-AAA8D0E78BC9}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{28148443-2711-446E-B0B0-78D4B216E698}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C245438E-644B-411E-BE4F-661EB3140FB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4983CB9-FC91-4657-BDB4-11F26CC7DB92}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2425,18 +2425,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{3DD05940-235C-468F-84EB-5BB544748D83}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{44A23175-68BE-4DA9-875E-11744F3A04E2}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{26861396-3949-4D99-9B95-7DDE37003B90}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{160DE880-68F0-47F3-8829-864AE78041E4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{C3EA1064-0C25-4334-A451-43F9007CCAAE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{E3EF1DF7-07D3-46A8-97FC-015BDE1C0C53}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{012250AD-DCE4-40CE-9C09-642BD45F7BF2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{8ADF306E-5123-4136-8D63-AEE8348ADB07}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{971EF1CF-A11F-41D5-8E8C-2288E2B0F605}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E7889D29-84C5-4F81-891C-2FCFB49EB4A2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{34037442-36E4-41A3-9A0B-BC9CA280599F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{05CA0D03-8135-4B7D-ADB9-59597C23A64E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{7B910171-6164-4A9D-BDDC-929F59A84EDE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{53D3C1A9-E957-4636-8C8E-798A6487EC73}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{E10CF078-656D-4CD4-BC8A-59DC5017FCA1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{BE235271-DD90-44CA-B85A-DE68715832FA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{A29179A0-6EBB-4478-9C8C-A53FAAFC6153}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{D49AA4FB-93B3-4093-90D1-D74DB1A54BC5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{0D05CBC4-AAD5-4D68-997C-7EBC5B436E4A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{E4C81603-0CE8-44F7-A1FB-EFF16B616C95}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{2FFBB679-FDDB-4FC0-B1C0-B31A0E6C2415}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{3B3D26F8-90BE-40B5-A99D-9B8AFA6EDCB5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{30D0AE4B-F511-4E43-8648-D1A177659DB2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{263EBBDB-CEEE-4775-A27C-EB10B655B13D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2449,7 +2449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD43183-2F5B-4105-8A59-53B71EE478B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF7E47E-09EC-49BF-9B44-4BC58E510BD9}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3618,18 +3618,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D1DC713A-C882-45E4-BE3E-F578DEF2EECE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{61EEFB46-F9E5-48DE-898B-42141E66C73B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{1C9EF03D-8CD0-48DE-B582-D5CA93555231}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{5765C582-F1B5-44F6-9B9E-051FBD80909D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{1246C70C-EADE-4A7C-A844-C43858CEED37}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{875D7F06-8538-4D51-BFA2-D9BFA13192CA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{8E6F35D7-588A-4942-B4EF-C1BA1E9A55E8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{B0BC61CF-E453-4D0C-8C0F-46C1D9E006E9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{3F4AB7DA-3BEE-4648-9436-4B22AA5AAF12}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{BF662738-582F-4883-9D65-A2F1A60B5829}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{E2EB9C67-6B41-456F-BA9B-85403A672F80}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{4262FBDF-E42C-4758-B567-EE554CE84601}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{90DF44A4-EE5B-4B3C-B948-566C5EA782ED}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{920E6453-43CB-42A9-8697-8E5B0BF19728}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{844B07D9-AF75-4549-89EF-97102A8C2748}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{1C89DD3C-38DA-4DFC-BFA0-22DC20EF7A93}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{809BFB65-7495-4598-A81F-B95518F9D101}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{405D9965-2CB2-46CD-8EF7-03D4D6677140}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{B82F6AD4-A17D-4818-A4CB-921C84373005}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D29958BA-181B-4C8D-A6D0-6FA679BAD84E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{DA917246-F491-4A2D-83AC-7739C9E3933D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{CF1AF076-ECFD-4392-9E9B-FDB5F48B37E3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{8C428045-0213-4265-A748-437CC2C5EC6E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{7D09BD71-5F51-4641-8582-640C563FCF3B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3642,7 +3642,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C1E4154-960D-4BFD-826E-29BCADA5BF78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E32AC6E-4C56-41D7-8C1A-28277EE31D0E}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4807,18 +4807,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{CE86C5E0-D384-49F2-841B-A5D4BEC71ABB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{5992AA3E-B5B2-4007-A774-87B77D1D8858}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{078FDB32-AA6C-432A-B323-9EEBE71F108D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{29AC25D1-E002-410D-BD4E-650D2BC45BC0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{D331619C-C5A4-487E-8D66-DCA11305CF2A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{ADE94041-A69E-4778-BBD3-B456D77A32F0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{24F94824-C130-49E1-ABB7-A06CDE7F918A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{4E000551-2C79-4909-B539-9DEE9CC55584}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B8B4CAA4-E42A-49ED-9358-9869839C336D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{616467C3-E72B-454B-A666-809E053A8C5C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{80A4EBF5-C8D8-4959-BCE0-E7BEAFA5799A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{AB12AC7A-407D-46B1-BD0D-FABA72E8983A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{E49B38E5-A0B6-4DA3-80E3-16DFF26756ED}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{051A8766-3082-4F39-97AE-B87DF631EEEB}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{54C4D864-1E5D-4E5F-9237-2C6C3CBE88C8}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{C7B0D537-5F6F-4E3B-8652-969E3328F5F7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{20359666-5E8A-4205-90C9-DC199298F30D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{97D7075E-A2D9-44D5-8CB4-54DE544660F1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{F677CC96-A374-4DC5-976A-9E3394728E46}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{39A18B69-937A-41BA-85DA-C542A83E10AF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D5C07625-E60F-44EF-A6C0-88B67EFD7F1B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{AB078742-FC70-464B-A0E7-C667E9C0EE10}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F7F03493-9714-4A92-8F6E-56EE31C4700B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{2C386199-3532-4E28-ADCC-0F3C43BE95F7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4831,7 +4831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6F1F81E-FE44-4B21-BAB5-AA39DD18F63A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3873F95-6EA4-4520-92BF-8C65B99ECF4F}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5988,18 +5988,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{5E2944E6-7A12-4147-9394-F7651D64BD80}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B39C0FE7-F4C3-45B8-91B3-4AA9862CB6D4}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{12FD9C80-43C8-432D-9310-0D649811B62B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{2E3ACAE0-51BF-4597-A813-20ACD4555FAE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{DDCFE25A-FBFE-479A-B153-79FC31B9CEF3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{7FA85CBB-DA31-4CE0-A13E-E1FC483C1173}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{135C788A-9933-47FD-86AE-6E187D9DC171}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{CBC7EF03-1BB7-4A68-BEFB-2FB4A9258844}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{32B15208-1AE3-4F04-87DC-DC7AA1928560}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E496EDAB-4F78-4EE8-BEC1-9DB4D255A89E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{110F70EF-72A0-44E2-97C9-B8B1A22734A8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F0BB3F28-50E3-487F-BB19-D09E64D2A743}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{5855C046-A36C-4C8D-A0C9-25B04C9E3A1D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E0A9FF96-4F71-430E-8000-6EA237C7725F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{5CC9436C-F302-441C-81B3-A00991A1FB67}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{37F4A943-3B13-453C-805A-038741057C24}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{0C61016B-1934-4AAD-868E-DFF1E76EFEDF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{E7919191-3A64-4AC3-9E24-A32629CD3BEF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{106E7D41-7733-40AB-8193-770C4F01C8FE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{B203ACD8-BEF5-4273-AD4E-54EEC426D7CC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{03F0EFB7-6B0C-4130-BB9C-EFD140A55AE8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{B43B943F-3FFA-4D97-82CE-B1FB30EB7A3A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{D91CE156-0758-4A17-A927-8C83BC6307A2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{4C61722F-1FFE-4BC8-947C-79F2C893C610}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6012,7 +6012,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0153CFB4-9FD0-47E0-8D17-8F82E17225BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98D0F49-B71A-4ACC-946E-8FD1B8F3E2DA}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7203,18 +7203,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{E0E62E2E-3ACA-4B60-AC93-762C0772E4D6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{F0C88E1A-88CB-4458-A6A1-B20749E7BFCB}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{27254E85-7C0D-40E7-ACAC-D342731EBF94}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{65438BB5-8C69-48E7-A393-4EEB82BD52C5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{998479AF-5BFD-491D-8E38-0177A18E65A8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{D2A35846-A0D5-420E-BA48-B7FE5B351E88}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{2ED76741-708D-4763-9E44-A1CA548AB0AF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{627ADF03-13D8-4153-A559-76FBB1F2AADA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{367AD4EE-8359-4708-B3E6-AF546421E996}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E254968D-279C-4F08-B93E-1B658E0C0BE1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{A1D40B02-AD97-490F-95B1-C88D642E2354}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{7035021E-86C8-4150-9C28-F9B3AE380258}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{FD1770DB-5259-4FA8-9FAF-D1E9A893E329}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{ECD1F7B7-E02B-4D90-B0FD-9DE1CC797AE3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{E7175995-960A-4D5A-AA8F-AEC034FCED6A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{F5A3285C-F268-4834-8D20-C9C9CBB2E3BC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{25DE9E2B-25C3-430C-956D-CAC095C7974E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{890252A1-D446-4061-8460-93351EFE6168}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{FEBAEB90-AFD5-4442-BED9-4FE6397B9E8E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{DE285565-E4FD-4E1F-A4F7-BB7E7EB43B24}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D7B4C357-A538-4D43-A914-001A459B35A9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{D6F1FA4E-5B9E-47D9-87D4-D4CC58A2122B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{25FFA8CF-7942-46AB-840E-1331442C8BC7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{A99DD5F5-76D1-49A2-A5C5-246C839D0EB0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7227,7 +7227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33897CFD-4287-4356-AC54-D3890DA13C32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD0E0C9-B039-4D56-8898-F4158780F7DC}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8418,18 +8418,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{EB776659-1399-47A1-B9DE-5CFD3CE713C5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{34126F74-DD0A-4C83-A0CE-D52087AFDFA9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{5E0F5272-640B-47BE-91E7-A1B8723193AF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{6170501A-524F-4A9D-9D38-F154EF638C4D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{25D6E8F6-CBB9-473D-AA6F-B58B9FF333A0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F9C00829-E89B-4D52-A0FA-67A773154025}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{DF4D5EC0-E1B8-4C9E-93B8-83EECB625CE8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{98D5DC59-4F30-46F7-B7A0-373A3BB3F218}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B8F698D3-9280-426C-9EC2-571955585874}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{3A41C976-7E7F-4BEF-9275-30B9DD00F1E2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{44F07269-1BDF-42B2-95ED-84E61529AB91}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{24BF9DC5-E2C6-44FB-B694-585C13A46A0B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{969512C8-F02B-42FF-9BC7-D90265B16EE1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{FD901F6D-562D-41F7-B305-E176AF465453}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{B73D34B0-5595-4BF6-A9A3-4817997BF16A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{36403E03-E5E9-4177-9A00-EFBC06B146DC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{214C9767-4A0A-47BF-8B81-F5FFE959D8ED}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F3266835-37BE-46A8-9F86-91DDD190144C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{87374BE3-6B81-4935-9C66-797F0529C6E8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{8259070C-46B6-46F0-B89B-17BD4DFEBB32}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{830F0642-BF17-48C4-A445-AF335C567EF0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{304FB823-7221-427A-B6C2-077EEB30B535}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{9B1B5E37-5216-41CD-9125-CB36680B42CC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{4BC47AC9-AD05-4BC0-B99C-C3A96D47661C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8442,7 +8442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C2A4BE-3563-44E2-A041-4356183EBB31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418E1A24-6AA8-4277-BF0D-4F5095E4B991}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9629,18 +9629,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A9D3E0E6-A8AF-4086-B6A7-FA7826BB334F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{AC4D6F5C-2E00-450B-9C14-E32585ADD432}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{5C024386-02F7-436F-8E33-7071BCCE4C84}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{20E9843A-CC90-4EF4-9B15-F978FCC8D9C8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{CEF5AC92-A8C4-436E-9297-E99994495DA3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{8E8CE3E0-7D6F-4FB3-A9D7-7D96BB9BA3F6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{A4DEBA11-EE10-4A12-8793-28DDBA40068C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{85AF1BE8-A1C0-458E-B8BE-1A3308E9376E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E8BDC4CC-C482-4C58-82DE-A62E2531E04E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{D8D42ACB-82AA-4B4C-AA94-CA4FC1B3A61A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{9CA38902-960D-46E5-8FE0-7F98831BFA02}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{3CBBFFC3-EE1E-4AF4-8313-B72AB909072A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{48F6B9A0-BE7D-41BD-96D4-BF8EE2C689C7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{DF4453AA-D4F4-464C-9DE1-9303C7D584EF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{7889638F-2354-4617-B0CD-F158B76B0F3B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{B564008D-345F-4279-93B6-CA1D5366CE15}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{64D2ABF7-C0E5-4E0E-9CED-A7029B3C497F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{CE7B9A8B-6923-44A4-9F46-1F1D435F4FE9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{4BCF72C0-1042-4E4C-8FAC-8590FEEF662C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{7A92B8B5-191D-4592-A67E-4793067C3B85}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{0A7CA01A-51B1-426C-9336-14223B710094}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{6D20A119-63BD-4E3E-841D-99CC9ED17484}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{AC065AEA-0056-4156-817D-C74DBFA8762D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{2A449E10-CC2F-4F7E-AABA-4EFEC4401DD1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9653,7 +9653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41946FDF-5CA5-4D51-8813-F1AE5E52D0EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CE8EB29-909E-49A8-BAD1-3EFDE2720764}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10832,18 +10832,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{0F36ABE3-640A-4658-86F1-70D1496E4781}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{DD533A19-2BD6-41AD-915A-43EFA2E084C2}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{FD75AA33-0888-48D8-B20A-AE0FAB4A536D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{B374FB3F-82DF-474A-A3AC-7BCE5B399369}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{9CB1D858-C710-4515-B693-02ACC8A93F6A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{067DD5D6-4C99-41B1-B1B7-0A7E41F295DE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{5A1CBB51-0D17-4DDF-A903-AAB3103CB6E2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{9A19CF01-4262-4065-8CA4-26F8B35CB1DE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D5A372FF-E67A-4881-B620-9D004F9249F8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{96287FB0-99F0-4E7D-A299-91E4B148AA29}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C6410F4C-46C9-477A-BF1F-D7590393EB63}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{A2976D9A-F9C1-47EE-B9DC-42C7874F38E9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{37E699FB-5E36-4A33-9BB2-C0B0FE3C87E6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{0260EBF4-13E3-424B-9333-8442D98FB852}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{471DFBDE-32AA-4E24-AB24-CA93D2758BD2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{F08C7FF4-4C34-4ABC-BE79-11EA8C4A5E89}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{FC003EF2-497E-46A0-B86E-A06B5C235016}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{51C2FA56-CF13-4D08-8D5E-624935E58FE3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{857DD749-D595-411D-8425-198D1B4E2690}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{BB421B0E-4C51-4558-AE48-D18ABBDD36C3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{A8DFCD3B-8B7E-45F9-89D7-ECBC54DED159}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{27D5F152-4A63-4ABB-B647-EF2951DF19EC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{DF40E20A-984C-459A-9B5D-2053FE3427B4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{9C751186-B9BF-4C2B-A165-1063F4F6EC19}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10856,7 +10856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{573CC960-784E-48DA-8530-AB0C3649DC04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE8B0CC2-E6C2-4BA7-AC98-BAFF63F51BA6}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12035,18 +12035,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{13C9B42E-80A6-4FD3-81D3-BCDBDF32C26E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{DF4E1E3F-330C-49FB-8C02-4D6EE78106E8}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{75418D4E-7F6F-4A3D-A249-A4AA43958D2A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{25A881B2-2CFC-47CA-AD62-FA3D9DA300E5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{E5B6C87D-2925-4745-A75C-396806B437F3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{05182959-33DE-442B-82C1-5CCEC8571ED1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{CA2BFEE0-96A8-4D37-897F-A8E493259BBB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{7062A723-7BBE-41A5-800E-D3EBD5BAD3EB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{2AA09D75-3DF7-49F9-92D1-6DBE220F3858}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{B2E9E3A9-2AD7-4DA4-8734-3A0E0FD2DC80}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{D9664E2F-02C5-4B56-B173-A2B3A9267F55}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{8B8EB806-35DD-4411-91BE-FF120DBBFB4C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{F2B4E401-7B21-4913-928B-59C0C957BC27}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E9A2C920-BE46-44A7-A241-BC8D84484640}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{F474A6FD-1A70-4B8B-B33F-8747934C70A5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{97091AB5-EC6D-42AE-A230-7B99DB816454}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{9EF05F46-5183-4EC3-A303-FF2E1337C046}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{EA0E9581-080E-4B3C-9DA8-5AD9D2D2FBA4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{8F42C63F-A61E-467F-B481-749ED9B63463}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{031521A6-8480-4667-B4C5-1D08A0E6C903}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{70EB523C-9F9A-4E95-8C99-E7C694BB26BC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{91234D95-64C9-41F6-8784-1BCBCF604752}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{3F1ECD9A-F886-46C4-851A-6AE630196748}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C21A54DA-3D6E-4D26-9721-0C7C2AD4EA63}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12059,7 +12059,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{703F7AAA-7EFD-479D-9CE9-4EA9728598A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8559A078-17D1-4482-A7FF-586A23C5B9F0}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13234,18 +13234,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{6222A2C5-0999-4E75-8C74-A18712F1A118}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B11554EC-23E9-40F6-8ADA-163F014579CE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{1186A1C5-A3F5-4BAF-9564-1476BC9A0208}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{B0218AD8-2E19-415C-B94B-775B881628EE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{661510CD-EA6A-41F4-9DBF-C77D37F8E7B6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{C414DC03-04BE-4741-9665-76BB8AACC73C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{6494214C-1908-4692-8843-6B0CDDC5CA64}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{F22F356D-48C4-4A62-854F-C41A5874358F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{7699AB76-A0D8-4F6E-B6B5-5FC8101568EF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{CEF97B73-0D71-4848-955E-0B75D29022A8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{7EB159C3-F66B-4F8B-B241-9A2CAB4AE0E3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{6E05F3CA-EFE9-4661-B6C1-F2855B072545}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{5926D48E-0487-4692-A4F1-5A59DC96B1A5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{CB12C75A-40B4-405D-AAA3-61ABDE6930D8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{47313E05-8B71-4F2C-9A47-04647AFE62BB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{549043BD-6F06-44D5-8DB6-C8AD70CD881A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{8B746A1C-89FD-4C42-B71B-4363711D022D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{11252589-FD26-4EB3-BD78-17ACA2FFC00F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{4929C07B-D526-4AA8-841C-E677C84F901F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{725B0686-5D21-4C4F-AA09-2B1A82539C38}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{0BBEB9BD-838D-46AC-B5AF-494AF3B0EDEF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{9EE8E9C4-FDE3-4297-AD18-CF8AFE8C7050}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{529DC0F8-14BD-4E06-A185-054D01706613}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{0F064C54-D522-4A67-9199-BC7EAF1E112B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13258,7 +13258,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A2F5B11-D56C-4A23-B013-914B8E036BEE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8CCA7EE-9470-46E9-983E-B626ADCD9B41}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14433,18 +14433,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{B99A7EC4-2D9B-405E-BF5A-D504017BBF81}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{AB6B9AF0-0113-47BE-B142-02ABB8BEEC18}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{FD108AF8-64C4-456B-A014-84951A867F98}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{3EB0080B-70D7-4554-ACE9-3006B0229F12}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{FB220007-2FF0-49F7-8F7C-A75A52D366C8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{C1059B99-1CFF-422E-A1BB-E9DCA90BE517}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{91E95B01-2376-4DF9-BC0E-D4652FC149E9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{FA13AC86-A66C-4C80-A591-A199AE0BD439}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{2D476EA8-A600-42B0-871B-6A980973FC71}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{8A8754A6-22CD-4E67-8DE4-85A493BCBB00}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{015FBD5E-5EB6-4ED2-8173-EF1EB0FB7C55}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{252012C6-5C40-4278-905B-5FFB2590CEA0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{7B4EF93A-A0AC-444B-A551-2A0DC51E38A9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{8A549C9C-3FB8-4A87-A490-A91B3DC12B1E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{9618278E-1B80-4BB3-9C13-4E8838B089B1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{E316EA78-309B-4174-BF03-92884A12FE98}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{780AD19D-E089-4D8F-A345-3ED5D6EB4357}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{5B2503F3-7B12-4C2B-963A-C856C2330DB3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{7199C6F5-591B-4B8A-AA90-10B70231F2DF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{48C6B196-E802-4A9C-B702-6DB840C39246}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{9DD956C6-EF83-4AF3-9239-83D874EDD7AB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{3ACAA215-C602-4C8D-ABA1-D399D8182679}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{A90E9A4F-9E13-4395-8807-30D4BE9FF8DF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C58919B6-0BB7-4E24-8557-70F5EA174E7B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14457,7 +14457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BEF5B22-BF2F-4EFD-9C7B-141041612048}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A2E7B4-2D72-4F99-8822-FDBFFAF1B61B}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15632,18 +15632,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D87C5E91-5ECC-4F67-87E9-1FDCE3E72925}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{4D4F3B5C-3471-47CA-A15F-5F73C2CD87EA}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{7424C740-A2D1-4A83-831B-B3571D975412}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{C8FF9531-DEC5-4176-8DA9-B055FAC34E20}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{AB04D7DE-02CE-4AB4-94CB-0B09875A81D8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{51DC7736-0DD9-4189-B82D-404F4948DE28}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{CE1C8EED-86DC-436D-9BF5-2D6E69B78B66}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{03E62EAC-8969-43B6-B57D-6DAD22A03B75}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{8E2F93B1-8217-4E1B-9F39-2DAAD0ABFD08}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{42372DB6-D056-4068-B917-90064B1C8B7E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{3453649A-51B2-4732-952F-878338CDA7FF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{AB8EDF0F-F5E7-4938-8ADF-8B63A0FB3F52}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{0F53F17A-2E85-4A23-A691-FE416EAA34F2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{ABFE4FCD-B515-4BB1-939A-3BC69E9AAA2A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{F53A141B-D995-47F5-909E-DDF86BAD2A8A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{609B66BA-58D1-412E-9282-698B755889FE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{94992CB1-1C8F-4112-80B3-C388C25D117E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{EF270D74-4546-4AED-8D5B-2513613E618C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{5F908497-4045-4526-897E-8A99A3620F77}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{92E770D2-EABF-47C1-A146-AD343EB07C60}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{35A7383A-5760-45B5-B416-3E29049248AC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{6B56C5ED-3932-4941-87A6-3F50363F7446}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{004FA243-33AB-4FFD-B9CD-9E59FB6793EF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{1C42853F-69B4-47C9-B3F6-731D3C52C7F7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
